--- a/output.xlsx
+++ b/output.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G369"/>
+  <dimension ref="A1:W369"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,13 +416,61 @@
         <v>TOTAL CLAIM VALUE</v>
       </c>
       <c r="E1" t="str">
-        <v xml:space="preserve">HEARING DATES </v>
+        <v>HEARING DATES</v>
       </c>
       <c r="F1" t="str">
         <v>AGENT ID</v>
       </c>
       <c r="G1" t="str">
         <v>PARTY ID</v>
+      </c>
+      <c r="H1" t="str">
+        <v>BORROWER NAME</v>
+      </c>
+      <c r="I1" t="str">
+        <v>CONTRACT NUMBER</v>
+      </c>
+      <c r="J1" t="str">
+        <v>ARBITRATOR NAME</v>
+      </c>
+      <c r="K1" t="str">
+        <v>CASE STATUS</v>
+      </c>
+      <c r="L1" t="str">
+        <v>FIRST NOTICE DATE</v>
+      </c>
+      <c r="M1" t="str">
+        <v>SECOND NOTICE DATE</v>
+      </c>
+      <c r="N1" t="str">
+        <v>THIRD NOTICE DATE</v>
+      </c>
+      <c r="O1" t="str">
+        <v>FIRST NOTICE DISPATCH DATE</v>
+      </c>
+      <c r="P1" t="str">
+        <v>SECOND NOTICE DISPATCH DATE</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>THIRD NOTICE DISPATCH DATE</v>
+      </c>
+      <c r="R1" t="str">
+        <v>SECTION 17 RAISED DATE</v>
+      </c>
+      <c r="S1" t="str">
+        <v>SECTION 17 TYPE</v>
+      </c>
+      <c r="T1" t="str">
+        <v>SECTION 17 PETITION DATE</v>
+      </c>
+      <c r="U1" t="str">
+        <v>AWARD DATE</v>
+      </c>
+      <c r="V1" t="str">
+        <v>AWARD DISPATCH DATE</v>
+      </c>
+      <c r="W1" t="str">
+        <v>SECTION 21 DISPATCH DATE</v>
       </c>
     </row>
     <row r="2">
@@ -470,6 +518,9 @@
       <c r="G3" t="str">
         <v>5</v>
       </c>
+      <c r="H3" t="str">
+        <v>Dhanush</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -493,6 +544,9 @@
       <c r="G4" t="str">
         <v>5</v>
       </c>
+      <c r="H4" t="str">
+        <v>Dhanush</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -515,6 +569,9 @@
       </c>
       <c r="G5" t="str">
         <v>5</v>
+      </c>
+      <c r="H5" t="str">
+        <v>ajit</v>
       </c>
     </row>
     <row r="6">
@@ -539,6 +596,9 @@
       <c r="G6" t="str">
         <v>5</v>
       </c>
+      <c r="H6" t="str">
+        <v>amit shah</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -562,6 +622,9 @@
       <c r="G7" t="str">
         <v>5</v>
       </c>
+      <c r="H7" t="str">
+        <v>fhfg</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -585,6 +648,9 @@
       <c r="G8" t="str">
         <v>5</v>
       </c>
+      <c r="H8" t="str">
+        <v>Ajith Kumar</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -608,6 +674,9 @@
       <c r="G9" t="str">
         <v>5</v>
       </c>
+      <c r="H9" t="str">
+        <v>amit shah</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -631,6 +700,9 @@
       <c r="G10" t="str">
         <v>5</v>
       </c>
+      <c r="H10" t="str">
+        <v>barfoo</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -654,6 +726,9 @@
       <c r="G11" t="str">
         <v>18</v>
       </c>
+      <c r="H11" t="str">
+        <v>Shanth</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -677,6 +752,9 @@
       <c r="G12" t="str">
         <v>18</v>
       </c>
+      <c r="H12" t="str">
+        <v>和平</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -700,6 +778,9 @@
       <c r="G13" t="str">
         <v>18</v>
       </c>
+      <c r="H13" t="str">
+        <v>Shanth</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -723,6 +804,9 @@
       <c r="G14" t="str">
         <v>18</v>
       </c>
+      <c r="H14" t="str">
+        <v>Shanth</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -746,6 +830,9 @@
       <c r="G15" t="str">
         <v>18</v>
       </c>
+      <c r="H15" t="str">
+        <v>Anand</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -769,6 +856,9 @@
       <c r="G16" t="str">
         <v>18</v>
       </c>
+      <c r="H16" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -792,6 +882,9 @@
       <c r="G17" t="str">
         <v>18</v>
       </c>
+      <c r="H17" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -815,6 +908,9 @@
       <c r="G18" t="str">
         <v>18</v>
       </c>
+      <c r="H18" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -838,6 +934,9 @@
       <c r="G19" t="str">
         <v>18</v>
       </c>
+      <c r="H19" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -861,6 +960,9 @@
       <c r="G20" t="str">
         <v>18</v>
       </c>
+      <c r="H20" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -884,6 +986,9 @@
       <c r="G21" t="str">
         <v>18</v>
       </c>
+      <c r="H21" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -907,6 +1012,9 @@
       <c r="G22" t="str">
         <v>18</v>
       </c>
+      <c r="H22" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -930,6 +1038,9 @@
       <c r="G23" t="str">
         <v>18</v>
       </c>
+      <c r="H23" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -953,6 +1064,9 @@
       <c r="G24" t="str">
         <v>18</v>
       </c>
+      <c r="H24" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -976,6 +1090,9 @@
       <c r="G25" t="str">
         <v>18</v>
       </c>
+      <c r="H25" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -999,6 +1116,9 @@
       <c r="G26" t="str">
         <v>18</v>
       </c>
+      <c r="H26" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -1022,6 +1142,9 @@
       <c r="G27" t="str">
         <v>18</v>
       </c>
+      <c r="H27" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -1045,6 +1168,9 @@
       <c r="G28" t="str">
         <v>18</v>
       </c>
+      <c r="H28" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1068,6 +1194,9 @@
       <c r="G29" t="str">
         <v>18</v>
       </c>
+      <c r="H29" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1091,6 +1220,9 @@
       <c r="G30" t="str">
         <v>18</v>
       </c>
+      <c r="H30" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -1114,6 +1246,9 @@
       <c r="G31" t="str">
         <v>18</v>
       </c>
+      <c r="H31" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -1137,6 +1272,9 @@
       <c r="G32" t="str">
         <v>18</v>
       </c>
+      <c r="H32" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -1160,6 +1298,9 @@
       <c r="G33" t="str">
         <v>18</v>
       </c>
+      <c r="H33" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -1183,6 +1324,9 @@
       <c r="G34" t="str">
         <v>18</v>
       </c>
+      <c r="H34" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -1206,6 +1350,9 @@
       <c r="G35" t="str">
         <v>18</v>
       </c>
+      <c r="H35" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -1229,6 +1376,9 @@
       <c r="G36" t="str">
         <v>18</v>
       </c>
+      <c r="H36" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1252,6 +1402,9 @@
       <c r="G37" t="str">
         <v>18</v>
       </c>
+      <c r="H37" t="str">
+        <v>adhvika</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1275,6 +1428,9 @@
       <c r="G38" t="str">
         <v>18</v>
       </c>
+      <c r="H38" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1298,6 +1454,9 @@
       <c r="G39" t="str">
         <v>27</v>
       </c>
+      <c r="H39" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -1344,6 +1503,9 @@
       <c r="G41" t="str">
         <v>28</v>
       </c>
+      <c r="H41" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -1367,6 +1529,9 @@
       <c r="G42" t="str">
         <v>28</v>
       </c>
+      <c r="H42" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -1390,6 +1555,9 @@
       <c r="G43" t="str">
         <v>28</v>
       </c>
+      <c r="H43" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -1413,6 +1581,9 @@
       <c r="G44" t="str">
         <v>28</v>
       </c>
+      <c r="H44" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -1436,6 +1607,9 @@
       <c r="G45" t="str">
         <v>36</v>
       </c>
+      <c r="H45" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -1459,6 +1633,9 @@
       <c r="G46" t="str">
         <v>36</v>
       </c>
+      <c r="H46" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -1482,6 +1659,9 @@
       <c r="G47" t="str">
         <v>36</v>
       </c>
+      <c r="H47" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -1505,6 +1685,9 @@
       <c r="G48" t="str">
         <v>36</v>
       </c>
+      <c r="H48" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -1528,6 +1711,9 @@
       <c r="G49" t="str">
         <v>36</v>
       </c>
+      <c r="H49" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -1551,6 +1737,9 @@
       <c r="G50" t="str">
         <v>44</v>
       </c>
+      <c r="H50" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -1574,6 +1763,9 @@
       <c r="G51" t="str">
         <v>51</v>
       </c>
+      <c r="H51" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -1597,6 +1789,9 @@
       <c r="G52" t="str">
         <v>51</v>
       </c>
+      <c r="H52" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -1620,6 +1815,9 @@
       <c r="G53" t="str">
         <v>51</v>
       </c>
+      <c r="H53" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -1643,6 +1841,9 @@
       <c r="G54" t="str">
         <v>51</v>
       </c>
+      <c r="H54" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -1666,6 +1867,9 @@
       <c r="G55" t="str">
         <v>51</v>
       </c>
+      <c r="H55" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -1689,6 +1893,9 @@
       <c r="G56" t="str">
         <v>51</v>
       </c>
+      <c r="H56" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1712,6 +1919,9 @@
       <c r="G57" t="str">
         <v>51</v>
       </c>
+      <c r="H57" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1735,6 +1945,9 @@
       <c r="G58" t="str">
         <v>51</v>
       </c>
+      <c r="H58" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1758,6 +1971,9 @@
       <c r="G59" t="str">
         <v>51</v>
       </c>
+      <c r="H59" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1781,6 +1997,9 @@
       <c r="G60" t="str">
         <v>51</v>
       </c>
+      <c r="H60" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1804,6 +2023,9 @@
       <c r="G61" t="str">
         <v>51</v>
       </c>
+      <c r="H61" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1827,6 +2049,9 @@
       <c r="G62" t="str">
         <v>51</v>
       </c>
+      <c r="H62" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1850,6 +2075,9 @@
       <c r="G63" t="str">
         <v>51</v>
       </c>
+      <c r="H63" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1873,6 +2101,9 @@
       <c r="G64" t="str">
         <v>51</v>
       </c>
+      <c r="H64" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1896,6 +2127,9 @@
       <c r="G65" t="str">
         <v>51</v>
       </c>
+      <c r="H65" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1919,6 +2153,9 @@
       <c r="G66" t="str">
         <v>51</v>
       </c>
+      <c r="H66" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1942,6 +2179,9 @@
       <c r="G67" t="str">
         <v>51</v>
       </c>
+      <c r="H67" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1965,6 +2205,9 @@
       <c r="G68" t="str">
         <v>51</v>
       </c>
+      <c r="H68" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1988,6 +2231,9 @@
       <c r="G69" t="str">
         <v>51</v>
       </c>
+      <c r="H69" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -2011,6 +2257,9 @@
       <c r="G70" t="str">
         <v>149</v>
       </c>
+      <c r="H70" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -2034,6 +2283,9 @@
       <c r="G71" t="str">
         <v>149</v>
       </c>
+      <c r="H71" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -2057,6 +2309,9 @@
       <c r="G72" t="str">
         <v>149</v>
       </c>
+      <c r="H72" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -2080,6 +2335,9 @@
       <c r="G73" t="str">
         <v>149</v>
       </c>
+      <c r="H73" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -2103,6 +2361,9 @@
       <c r="G74" t="str">
         <v>149</v>
       </c>
+      <c r="H74" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -2126,6 +2387,9 @@
       <c r="G75" t="str">
         <v>149</v>
       </c>
+      <c r="H75" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -2149,6 +2413,9 @@
       <c r="G76" t="str">
         <v>149</v>
       </c>
+      <c r="H76" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -2172,6 +2439,9 @@
       <c r="G77" t="str">
         <v>149</v>
       </c>
+      <c r="H77" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -2195,6 +2465,9 @@
       <c r="G78" t="str">
         <v>149</v>
       </c>
+      <c r="H78" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -2586,6 +2859,9 @@
       <c r="G95" t="str">
         <v>5</v>
       </c>
+      <c r="H95" t="str">
+        <v>Dhanush</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -2609,6 +2885,9 @@
       <c r="G96" t="str">
         <v>5</v>
       </c>
+      <c r="H96" t="str">
+        <v>Dhanush</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -2631,6 +2910,9 @@
       </c>
       <c r="G97" t="str">
         <v>5</v>
+      </c>
+      <c r="H97" t="str">
+        <v>ajit</v>
       </c>
     </row>
     <row r="98">
@@ -2655,6 +2937,9 @@
       <c r="G98" t="str">
         <v>5</v>
       </c>
+      <c r="H98" t="str">
+        <v>amit shah</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -2678,6 +2963,9 @@
       <c r="G99" t="str">
         <v>5</v>
       </c>
+      <c r="H99" t="str">
+        <v>fhfg</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -2701,6 +2989,9 @@
       <c r="G100" t="str">
         <v>5</v>
       </c>
+      <c r="H100" t="str">
+        <v>Ajith Kumar</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -2724,6 +3015,9 @@
       <c r="G101" t="str">
         <v>5</v>
       </c>
+      <c r="H101" t="str">
+        <v>amit shah</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -2747,6 +3041,9 @@
       <c r="G102" t="str">
         <v>5</v>
       </c>
+      <c r="H102" t="str">
+        <v>barfoo</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -2770,6 +3067,9 @@
       <c r="G103" t="str">
         <v>18</v>
       </c>
+      <c r="H103" t="str">
+        <v>Shanth</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -2793,6 +3093,9 @@
       <c r="G104" t="str">
         <v>18</v>
       </c>
+      <c r="H104" t="str">
+        <v>和平</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -2816,6 +3119,9 @@
       <c r="G105" t="str">
         <v>18</v>
       </c>
+      <c r="H105" t="str">
+        <v>Shanth</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -2839,6 +3145,9 @@
       <c r="G106" t="str">
         <v>18</v>
       </c>
+      <c r="H106" t="str">
+        <v>Shanth</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -2862,6 +3171,9 @@
       <c r="G107" t="str">
         <v>18</v>
       </c>
+      <c r="H107" t="str">
+        <v>Anand</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -2885,6 +3197,9 @@
       <c r="G108" t="str">
         <v>18</v>
       </c>
+      <c r="H108" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -2908,6 +3223,9 @@
       <c r="G109" t="str">
         <v>18</v>
       </c>
+      <c r="H109" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -2931,6 +3249,9 @@
       <c r="G110" t="str">
         <v>18</v>
       </c>
+      <c r="H110" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -2954,6 +3275,9 @@
       <c r="G111" t="str">
         <v>18</v>
       </c>
+      <c r="H111" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -2977,6 +3301,9 @@
       <c r="G112" t="str">
         <v>18</v>
       </c>
+      <c r="H112" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -3000,6 +3327,9 @@
       <c r="G113" t="str">
         <v>18</v>
       </c>
+      <c r="H113" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -3023,6 +3353,9 @@
       <c r="G114" t="str">
         <v>18</v>
       </c>
+      <c r="H114" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -3046,6 +3379,9 @@
       <c r="G115" t="str">
         <v>18</v>
       </c>
+      <c r="H115" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -3069,6 +3405,9 @@
       <c r="G116" t="str">
         <v>18</v>
       </c>
+      <c r="H116" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -3092,6 +3431,9 @@
       <c r="G117" t="str">
         <v>18</v>
       </c>
+      <c r="H117" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -3115,6 +3457,9 @@
       <c r="G118" t="str">
         <v>18</v>
       </c>
+      <c r="H118" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -3138,6 +3483,9 @@
       <c r="G119" t="str">
         <v>18</v>
       </c>
+      <c r="H119" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -3161,6 +3509,9 @@
       <c r="G120" t="str">
         <v>18</v>
       </c>
+      <c r="H120" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
@@ -3184,6 +3535,9 @@
       <c r="G121" t="str">
         <v>18</v>
       </c>
+      <c r="H121" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
@@ -3207,6 +3561,9 @@
       <c r="G122" t="str">
         <v>18</v>
       </c>
+      <c r="H122" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
@@ -3230,6 +3587,9 @@
       <c r="G123" t="str">
         <v>18</v>
       </c>
+      <c r="H123" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
@@ -3253,6 +3613,9 @@
       <c r="G124" t="str">
         <v>18</v>
       </c>
+      <c r="H124" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -3276,6 +3639,9 @@
       <c r="G125" t="str">
         <v>18</v>
       </c>
+      <c r="H125" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -3299,6 +3665,9 @@
       <c r="G126" t="str">
         <v>18</v>
       </c>
+      <c r="H126" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -3322,6 +3691,9 @@
       <c r="G127" t="str">
         <v>18</v>
       </c>
+      <c r="H127" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -3345,6 +3717,9 @@
       <c r="G128" t="str">
         <v>18</v>
       </c>
+      <c r="H128" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
@@ -3368,6 +3743,9 @@
       <c r="G129" t="str">
         <v>18</v>
       </c>
+      <c r="H129" t="str">
+        <v>adhvika</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
@@ -3391,6 +3769,9 @@
       <c r="G130" t="str">
         <v>18</v>
       </c>
+      <c r="H130" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
@@ -3414,6 +3795,9 @@
       <c r="G131" t="str">
         <v>27</v>
       </c>
+      <c r="H131" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -3460,6 +3844,9 @@
       <c r="G133" t="str">
         <v>28</v>
       </c>
+      <c r="H133" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -3483,6 +3870,9 @@
       <c r="G134" t="str">
         <v>28</v>
       </c>
+      <c r="H134" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -3506,6 +3896,9 @@
       <c r="G135" t="str">
         <v>28</v>
       </c>
+      <c r="H135" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
@@ -3529,6 +3922,9 @@
       <c r="G136" t="str">
         <v>28</v>
       </c>
+      <c r="H136" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
@@ -3552,6 +3948,9 @@
       <c r="G137" t="str">
         <v>36</v>
       </c>
+      <c r="H137" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
@@ -3575,6 +3974,9 @@
       <c r="G138" t="str">
         <v>36</v>
       </c>
+      <c r="H138" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
@@ -3598,6 +4000,9 @@
       <c r="G139" t="str">
         <v>36</v>
       </c>
+      <c r="H139" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
@@ -3621,6 +4026,9 @@
       <c r="G140" t="str">
         <v>36</v>
       </c>
+      <c r="H140" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
@@ -3644,6 +4052,9 @@
       <c r="G141" t="str">
         <v>36</v>
       </c>
+      <c r="H141" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
@@ -3667,6 +4078,9 @@
       <c r="G142" t="str">
         <v>44</v>
       </c>
+      <c r="H142" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
@@ -3690,6 +4104,9 @@
       <c r="G143" t="str">
         <v>51</v>
       </c>
+      <c r="H143" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
@@ -3713,6 +4130,9 @@
       <c r="G144" t="str">
         <v>51</v>
       </c>
+      <c r="H144" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
@@ -3736,6 +4156,9 @@
       <c r="G145" t="str">
         <v>51</v>
       </c>
+      <c r="H145" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
@@ -3759,6 +4182,9 @@
       <c r="G146" t="str">
         <v>51</v>
       </c>
+      <c r="H146" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
@@ -3782,6 +4208,9 @@
       <c r="G147" t="str">
         <v>51</v>
       </c>
+      <c r="H147" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
@@ -3805,6 +4234,9 @@
       <c r="G148" t="str">
         <v>51</v>
       </c>
+      <c r="H148" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
@@ -3828,6 +4260,9 @@
       <c r="G149" t="str">
         <v>51</v>
       </c>
+      <c r="H149" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
@@ -3851,6 +4286,9 @@
       <c r="G150" t="str">
         <v>51</v>
       </c>
+      <c r="H150" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
@@ -3874,6 +4312,9 @@
       <c r="G151" t="str">
         <v>51</v>
       </c>
+      <c r="H151" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
@@ -3897,6 +4338,9 @@
       <c r="G152" t="str">
         <v>51</v>
       </c>
+      <c r="H152" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
@@ -3920,6 +4364,9 @@
       <c r="G153" t="str">
         <v>51</v>
       </c>
+      <c r="H153" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
@@ -3943,6 +4390,9 @@
       <c r="G154" t="str">
         <v>51</v>
       </c>
+      <c r="H154" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
@@ -3966,6 +4416,9 @@
       <c r="G155" t="str">
         <v>51</v>
       </c>
+      <c r="H155" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
@@ -3989,6 +4442,9 @@
       <c r="G156" t="str">
         <v>51</v>
       </c>
+      <c r="H156" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
@@ -4012,6 +4468,9 @@
       <c r="G157" t="str">
         <v>51</v>
       </c>
+      <c r="H157" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
@@ -4035,6 +4494,9 @@
       <c r="G158" t="str">
         <v>51</v>
       </c>
+      <c r="H158" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
@@ -4058,6 +4520,9 @@
       <c r="G159" t="str">
         <v>51</v>
       </c>
+      <c r="H159" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
@@ -4081,6 +4546,9 @@
       <c r="G160" t="str">
         <v>51</v>
       </c>
+      <c r="H160" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
@@ -4104,6 +4572,9 @@
       <c r="G161" t="str">
         <v>51</v>
       </c>
+      <c r="H161" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
@@ -4127,6 +4598,9 @@
       <c r="G162" t="str">
         <v>149</v>
       </c>
+      <c r="H162" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
@@ -4150,6 +4624,9 @@
       <c r="G163" t="str">
         <v>149</v>
       </c>
+      <c r="H163" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
@@ -4173,6 +4650,9 @@
       <c r="G164" t="str">
         <v>149</v>
       </c>
+      <c r="H164" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
@@ -4196,6 +4676,9 @@
       <c r="G165" t="str">
         <v>149</v>
       </c>
+      <c r="H165" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
@@ -4219,6 +4702,9 @@
       <c r="G166" t="str">
         <v>149</v>
       </c>
+      <c r="H166" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
@@ -4242,6 +4728,9 @@
       <c r="G167" t="str">
         <v>149</v>
       </c>
+      <c r="H167" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
@@ -4265,6 +4754,9 @@
       <c r="G168" t="str">
         <v>149</v>
       </c>
+      <c r="H168" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
@@ -4288,6 +4780,9 @@
       <c r="G169" t="str">
         <v>149</v>
       </c>
+      <c r="H169" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
@@ -4311,6 +4806,9 @@
       <c r="G170" t="str">
         <v>149</v>
       </c>
+      <c r="H170" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
@@ -4702,6 +5200,9 @@
       <c r="G187" t="str">
         <v>5</v>
       </c>
+      <c r="H187" t="str">
+        <v>Dhanush</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
@@ -4725,6 +5226,9 @@
       <c r="G188" t="str">
         <v>5</v>
       </c>
+      <c r="H188" t="str">
+        <v>Dhanush</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
@@ -4747,6 +5251,9 @@
       </c>
       <c r="G189" t="str">
         <v>5</v>
+      </c>
+      <c r="H189" t="str">
+        <v>ajit</v>
       </c>
     </row>
     <row r="190">
@@ -4771,6 +5278,9 @@
       <c r="G190" t="str">
         <v>5</v>
       </c>
+      <c r="H190" t="str">
+        <v>amit shah</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
@@ -4794,6 +5304,9 @@
       <c r="G191" t="str">
         <v>5</v>
       </c>
+      <c r="H191" t="str">
+        <v>fhfg</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
@@ -4817,6 +5330,9 @@
       <c r="G192" t="str">
         <v>5</v>
       </c>
+      <c r="H192" t="str">
+        <v>Ajith Kumar</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
@@ -4840,6 +5356,9 @@
       <c r="G193" t="str">
         <v>5</v>
       </c>
+      <c r="H193" t="str">
+        <v>amit shah</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
@@ -4863,6 +5382,9 @@
       <c r="G194" t="str">
         <v>5</v>
       </c>
+      <c r="H194" t="str">
+        <v>barfoo</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
@@ -4886,6 +5408,9 @@
       <c r="G195" t="str">
         <v>18</v>
       </c>
+      <c r="H195" t="str">
+        <v>Shanth</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
@@ -4909,6 +5434,9 @@
       <c r="G196" t="str">
         <v>18</v>
       </c>
+      <c r="H196" t="str">
+        <v>和平</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
@@ -4932,6 +5460,9 @@
       <c r="G197" t="str">
         <v>18</v>
       </c>
+      <c r="H197" t="str">
+        <v>Shanth</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
@@ -4955,6 +5486,9 @@
       <c r="G198" t="str">
         <v>18</v>
       </c>
+      <c r="H198" t="str">
+        <v>Shanth</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
@@ -4978,6 +5512,9 @@
       <c r="G199" t="str">
         <v>18</v>
       </c>
+      <c r="H199" t="str">
+        <v>Anand</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
@@ -5001,6 +5538,9 @@
       <c r="G200" t="str">
         <v>18</v>
       </c>
+      <c r="H200" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
@@ -5024,6 +5564,9 @@
       <c r="G201" t="str">
         <v>18</v>
       </c>
+      <c r="H201" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
@@ -5047,6 +5590,9 @@
       <c r="G202" t="str">
         <v>18</v>
       </c>
+      <c r="H202" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
@@ -5070,6 +5616,9 @@
       <c r="G203" t="str">
         <v>18</v>
       </c>
+      <c r="H203" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
@@ -5093,6 +5642,9 @@
       <c r="G204" t="str">
         <v>18</v>
       </c>
+      <c r="H204" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
@@ -5116,6 +5668,9 @@
       <c r="G205" t="str">
         <v>18</v>
       </c>
+      <c r="H205" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
@@ -5139,6 +5694,9 @@
       <c r="G206" t="str">
         <v>18</v>
       </c>
+      <c r="H206" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
@@ -5162,6 +5720,9 @@
       <c r="G207" t="str">
         <v>18</v>
       </c>
+      <c r="H207" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
@@ -5185,6 +5746,9 @@
       <c r="G208" t="str">
         <v>18</v>
       </c>
+      <c r="H208" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
@@ -5208,6 +5772,9 @@
       <c r="G209" t="str">
         <v>18</v>
       </c>
+      <c r="H209" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
@@ -5231,6 +5798,9 @@
       <c r="G210" t="str">
         <v>18</v>
       </c>
+      <c r="H210" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
@@ -5254,6 +5824,9 @@
       <c r="G211" t="str">
         <v>18</v>
       </c>
+      <c r="H211" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
@@ -5277,6 +5850,9 @@
       <c r="G212" t="str">
         <v>18</v>
       </c>
+      <c r="H212" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
@@ -5300,6 +5876,9 @@
       <c r="G213" t="str">
         <v>18</v>
       </c>
+      <c r="H213" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
@@ -5323,6 +5902,9 @@
       <c r="G214" t="str">
         <v>18</v>
       </c>
+      <c r="H214" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
@@ -5346,6 +5928,9 @@
       <c r="G215" t="str">
         <v>18</v>
       </c>
+      <c r="H215" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
@@ -5369,6 +5954,9 @@
       <c r="G216" t="str">
         <v>18</v>
       </c>
+      <c r="H216" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
@@ -5392,6 +5980,9 @@
       <c r="G217" t="str">
         <v>18</v>
       </c>
+      <c r="H217" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
@@ -5415,6 +6006,9 @@
       <c r="G218" t="str">
         <v>18</v>
       </c>
+      <c r="H218" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
@@ -5438,6 +6032,9 @@
       <c r="G219" t="str">
         <v>18</v>
       </c>
+      <c r="H219" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
@@ -5461,6 +6058,9 @@
       <c r="G220" t="str">
         <v>18</v>
       </c>
+      <c r="H220" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
@@ -5484,6 +6084,9 @@
       <c r="G221" t="str">
         <v>18</v>
       </c>
+      <c r="H221" t="str">
+        <v>adhvika</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
@@ -5507,6 +6110,9 @@
       <c r="G222" t="str">
         <v>18</v>
       </c>
+      <c r="H222" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
@@ -5530,6 +6136,9 @@
       <c r="G223" t="str">
         <v>27</v>
       </c>
+      <c r="H223" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
@@ -5576,6 +6185,9 @@
       <c r="G225" t="str">
         <v>28</v>
       </c>
+      <c r="H225" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
@@ -5599,6 +6211,9 @@
       <c r="G226" t="str">
         <v>28</v>
       </c>
+      <c r="H226" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
@@ -5622,6 +6237,9 @@
       <c r="G227" t="str">
         <v>28</v>
       </c>
+      <c r="H227" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
@@ -5645,6 +6263,9 @@
       <c r="G228" t="str">
         <v>28</v>
       </c>
+      <c r="H228" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
@@ -5668,6 +6289,9 @@
       <c r="G229" t="str">
         <v>36</v>
       </c>
+      <c r="H229" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
@@ -5691,6 +6315,9 @@
       <c r="G230" t="str">
         <v>36</v>
       </c>
+      <c r="H230" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
@@ -5714,6 +6341,9 @@
       <c r="G231" t="str">
         <v>36</v>
       </c>
+      <c r="H231" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
@@ -5737,6 +6367,9 @@
       <c r="G232" t="str">
         <v>36</v>
       </c>
+      <c r="H232" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
@@ -5760,6 +6393,9 @@
       <c r="G233" t="str">
         <v>36</v>
       </c>
+      <c r="H233" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
@@ -5783,6 +6419,9 @@
       <c r="G234" t="str">
         <v>44</v>
       </c>
+      <c r="H234" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
@@ -5806,6 +6445,9 @@
       <c r="G235" t="str">
         <v>51</v>
       </c>
+      <c r="H235" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
@@ -5829,6 +6471,9 @@
       <c r="G236" t="str">
         <v>51</v>
       </c>
+      <c r="H236" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
@@ -5852,6 +6497,9 @@
       <c r="G237" t="str">
         <v>51</v>
       </c>
+      <c r="H237" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
@@ -5875,6 +6523,9 @@
       <c r="G238" t="str">
         <v>51</v>
       </c>
+      <c r="H238" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
@@ -5898,6 +6549,9 @@
       <c r="G239" t="str">
         <v>51</v>
       </c>
+      <c r="H239" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
@@ -5921,6 +6575,9 @@
       <c r="G240" t="str">
         <v>51</v>
       </c>
+      <c r="H240" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
@@ -5944,6 +6601,9 @@
       <c r="G241" t="str">
         <v>51</v>
       </c>
+      <c r="H241" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
@@ -5967,6 +6627,9 @@
       <c r="G242" t="str">
         <v>51</v>
       </c>
+      <c r="H242" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
@@ -5990,6 +6653,9 @@
       <c r="G243" t="str">
         <v>51</v>
       </c>
+      <c r="H243" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
@@ -6013,6 +6679,9 @@
       <c r="G244" t="str">
         <v>51</v>
       </c>
+      <c r="H244" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
@@ -6036,6 +6705,9 @@
       <c r="G245" t="str">
         <v>51</v>
       </c>
+      <c r="H245" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
@@ -6059,6 +6731,9 @@
       <c r="G246" t="str">
         <v>51</v>
       </c>
+      <c r="H246" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
@@ -6082,6 +6757,9 @@
       <c r="G247" t="str">
         <v>51</v>
       </c>
+      <c r="H247" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
@@ -6105,6 +6783,9 @@
       <c r="G248" t="str">
         <v>51</v>
       </c>
+      <c r="H248" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
@@ -6128,6 +6809,9 @@
       <c r="G249" t="str">
         <v>51</v>
       </c>
+      <c r="H249" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
@@ -6151,6 +6835,9 @@
       <c r="G250" t="str">
         <v>51</v>
       </c>
+      <c r="H250" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
@@ -6174,6 +6861,9 @@
       <c r="G251" t="str">
         <v>51</v>
       </c>
+      <c r="H251" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
@@ -6197,6 +6887,9 @@
       <c r="G252" t="str">
         <v>51</v>
       </c>
+      <c r="H252" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
@@ -6220,6 +6913,9 @@
       <c r="G253" t="str">
         <v>51</v>
       </c>
+      <c r="H253" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
@@ -6243,6 +6939,9 @@
       <c r="G254" t="str">
         <v>149</v>
       </c>
+      <c r="H254" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
@@ -6266,6 +6965,9 @@
       <c r="G255" t="str">
         <v>149</v>
       </c>
+      <c r="H255" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
@@ -6289,6 +6991,9 @@
       <c r="G256" t="str">
         <v>149</v>
       </c>
+      <c r="H256" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
@@ -6312,6 +7017,9 @@
       <c r="G257" t="str">
         <v>149</v>
       </c>
+      <c r="H257" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
@@ -6335,6 +7043,9 @@
       <c r="G258" t="str">
         <v>149</v>
       </c>
+      <c r="H258" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
@@ -6358,6 +7069,9 @@
       <c r="G259" t="str">
         <v>149</v>
       </c>
+      <c r="H259" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
@@ -6381,6 +7095,9 @@
       <c r="G260" t="str">
         <v>149</v>
       </c>
+      <c r="H260" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
@@ -6404,6 +7121,9 @@
       <c r="G261" t="str">
         <v>149</v>
       </c>
+      <c r="H261" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
@@ -6427,6 +7147,9 @@
       <c r="G262" t="str">
         <v>149</v>
       </c>
+      <c r="H262" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
@@ -6818,6 +7541,9 @@
       <c r="G279" t="str">
         <v>5</v>
       </c>
+      <c r="H279" t="str">
+        <v>Dhanush</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
@@ -6841,6 +7567,9 @@
       <c r="G280" t="str">
         <v>5</v>
       </c>
+      <c r="H280" t="str">
+        <v>Dhanush</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
@@ -6863,6 +7592,9 @@
       </c>
       <c r="G281" t="str">
         <v>5</v>
+      </c>
+      <c r="H281" t="str">
+        <v>ajit</v>
       </c>
     </row>
     <row r="282">
@@ -6887,6 +7619,9 @@
       <c r="G282" t="str">
         <v>5</v>
       </c>
+      <c r="H282" t="str">
+        <v>amit shah</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
@@ -6910,6 +7645,9 @@
       <c r="G283" t="str">
         <v>5</v>
       </c>
+      <c r="H283" t="str">
+        <v>fhfg</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
@@ -6933,6 +7671,9 @@
       <c r="G284" t="str">
         <v>5</v>
       </c>
+      <c r="H284" t="str">
+        <v>Ajith Kumar</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
@@ -6956,6 +7697,9 @@
       <c r="G285" t="str">
         <v>5</v>
       </c>
+      <c r="H285" t="str">
+        <v>amit shah</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
@@ -6979,6 +7723,9 @@
       <c r="G286" t="str">
         <v>5</v>
       </c>
+      <c r="H286" t="str">
+        <v>barfoo</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
@@ -7002,6 +7749,9 @@
       <c r="G287" t="str">
         <v>18</v>
       </c>
+      <c r="H287" t="str">
+        <v>Shanth</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
@@ -7025,6 +7775,9 @@
       <c r="G288" t="str">
         <v>18</v>
       </c>
+      <c r="H288" t="str">
+        <v>和平</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
@@ -7048,6 +7801,9 @@
       <c r="G289" t="str">
         <v>18</v>
       </c>
+      <c r="H289" t="str">
+        <v>Shanth</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
@@ -7071,6 +7827,9 @@
       <c r="G290" t="str">
         <v>18</v>
       </c>
+      <c r="H290" t="str">
+        <v>Shanth</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
@@ -7094,6 +7853,9 @@
       <c r="G291" t="str">
         <v>18</v>
       </c>
+      <c r="H291" t="str">
+        <v>Anand</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
@@ -7117,6 +7879,9 @@
       <c r="G292" t="str">
         <v>18</v>
       </c>
+      <c r="H292" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
@@ -7140,6 +7905,9 @@
       <c r="G293" t="str">
         <v>18</v>
       </c>
+      <c r="H293" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
@@ -7163,6 +7931,9 @@
       <c r="G294" t="str">
         <v>18</v>
       </c>
+      <c r="H294" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
@@ -7186,6 +7957,9 @@
       <c r="G295" t="str">
         <v>18</v>
       </c>
+      <c r="H295" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
@@ -7209,6 +7983,9 @@
       <c r="G296" t="str">
         <v>18</v>
       </c>
+      <c r="H296" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
@@ -7232,6 +8009,9 @@
       <c r="G297" t="str">
         <v>18</v>
       </c>
+      <c r="H297" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
@@ -7255,6 +8035,9 @@
       <c r="G298" t="str">
         <v>18</v>
       </c>
+      <c r="H298" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
@@ -7278,6 +8061,9 @@
       <c r="G299" t="str">
         <v>18</v>
       </c>
+      <c r="H299" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
@@ -7301,6 +8087,9 @@
       <c r="G300" t="str">
         <v>18</v>
       </c>
+      <c r="H300" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
@@ -7324,6 +8113,9 @@
       <c r="G301" t="str">
         <v>18</v>
       </c>
+      <c r="H301" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
@@ -7347,6 +8139,9 @@
       <c r="G302" t="str">
         <v>18</v>
       </c>
+      <c r="H302" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
@@ -7370,6 +8165,9 @@
       <c r="G303" t="str">
         <v>18</v>
       </c>
+      <c r="H303" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
@@ -7393,6 +8191,9 @@
       <c r="G304" t="str">
         <v>18</v>
       </c>
+      <c r="H304" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
@@ -7416,6 +8217,9 @@
       <c r="G305" t="str">
         <v>18</v>
       </c>
+      <c r="H305" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
@@ -7439,6 +8243,9 @@
       <c r="G306" t="str">
         <v>18</v>
       </c>
+      <c r="H306" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
@@ -7462,6 +8269,9 @@
       <c r="G307" t="str">
         <v>18</v>
       </c>
+      <c r="H307" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
@@ -7485,6 +8295,9 @@
       <c r="G308" t="str">
         <v>18</v>
       </c>
+      <c r="H308" t="str">
+        <v>ABC company</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
@@ -7508,6 +8321,9 @@
       <c r="G309" t="str">
         <v>18</v>
       </c>
+      <c r="H309" t="str">
+        <v>ZXC company</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
@@ -7531,6 +8347,9 @@
       <c r="G310" t="str">
         <v>18</v>
       </c>
+      <c r="H310" t="str">
+        <v>Mohan</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
@@ -7554,6 +8373,9 @@
       <c r="G311" t="str">
         <v>18</v>
       </c>
+      <c r="H311" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
@@ -7577,6 +8399,9 @@
       <c r="G312" t="str">
         <v>18</v>
       </c>
+      <c r="H312" t="str">
+        <v>Aman</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
@@ -7600,6 +8425,9 @@
       <c r="G313" t="str">
         <v>18</v>
       </c>
+      <c r="H313" t="str">
+        <v>adhvika</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
@@ -7623,6 +8451,9 @@
       <c r="G314" t="str">
         <v>18</v>
       </c>
+      <c r="H314" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
@@ -7646,6 +8477,9 @@
       <c r="G315" t="str">
         <v>27</v>
       </c>
+      <c r="H315" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
@@ -7692,6 +8526,9 @@
       <c r="G317" t="str">
         <v>28</v>
       </c>
+      <c r="H317" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
@@ -7715,6 +8552,9 @@
       <c r="G318" t="str">
         <v>28</v>
       </c>
+      <c r="H318" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
@@ -7738,6 +8578,9 @@
       <c r="G319" t="str">
         <v>28</v>
       </c>
+      <c r="H319" t="str">
+        <v>MNC company</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
@@ -7761,6 +8604,9 @@
       <c r="G320" t="str">
         <v>28</v>
       </c>
+      <c r="H320" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
@@ -7784,6 +8630,9 @@
       <c r="G321" t="str">
         <v>36</v>
       </c>
+      <c r="H321" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
@@ -7807,6 +8656,9 @@
       <c r="G322" t="str">
         <v>36</v>
       </c>
+      <c r="H322" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
@@ -7830,6 +8682,9 @@
       <c r="G323" t="str">
         <v>36</v>
       </c>
+      <c r="H323" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
@@ -7853,6 +8708,9 @@
       <c r="G324" t="str">
         <v>36</v>
       </c>
+      <c r="H324" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
@@ -7876,6 +8734,9 @@
       <c r="G325" t="str">
         <v>36</v>
       </c>
+      <c r="H325" t="str">
+        <v>anand</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
@@ -7899,6 +8760,9 @@
       <c r="G326" t="str">
         <v>44</v>
       </c>
+      <c r="H326" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
@@ -7922,6 +8786,9 @@
       <c r="G327" t="str">
         <v>51</v>
       </c>
+      <c r="H327" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
@@ -7945,6 +8812,9 @@
       <c r="G328" t="str">
         <v>51</v>
       </c>
+      <c r="H328" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
@@ -7968,6 +8838,9 @@
       <c r="G329" t="str">
         <v>51</v>
       </c>
+      <c r="H329" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
@@ -7991,6 +8864,9 @@
       <c r="G330" t="str">
         <v>51</v>
       </c>
+      <c r="H330" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
@@ -8014,6 +8890,9 @@
       <c r="G331" t="str">
         <v>51</v>
       </c>
+      <c r="H331" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
@@ -8037,6 +8916,9 @@
       <c r="G332" t="str">
         <v>51</v>
       </c>
+      <c r="H332" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
@@ -8060,6 +8942,9 @@
       <c r="G333" t="str">
         <v>51</v>
       </c>
+      <c r="H333" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
@@ -8083,6 +8968,9 @@
       <c r="G334" t="str">
         <v>51</v>
       </c>
+      <c r="H334" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
@@ -8106,6 +8994,9 @@
       <c r="G335" t="str">
         <v>51</v>
       </c>
+      <c r="H335" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
@@ -8129,6 +9020,9 @@
       <c r="G336" t="str">
         <v>51</v>
       </c>
+      <c r="H336" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
@@ -8152,6 +9046,9 @@
       <c r="G337" t="str">
         <v>51</v>
       </c>
+      <c r="H337" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
@@ -8175,6 +9072,9 @@
       <c r="G338" t="str">
         <v>51</v>
       </c>
+      <c r="H338" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
@@ -8198,6 +9098,9 @@
       <c r="G339" t="str">
         <v>51</v>
       </c>
+      <c r="H339" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
@@ -8221,6 +9124,9 @@
       <c r="G340" t="str">
         <v>51</v>
       </c>
+      <c r="H340" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
@@ -8244,6 +9150,9 @@
       <c r="G341" t="str">
         <v>51</v>
       </c>
+      <c r="H341" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
@@ -8267,6 +9176,9 @@
       <c r="G342" t="str">
         <v>51</v>
       </c>
+      <c r="H342" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
@@ -8290,6 +9202,9 @@
       <c r="G343" t="str">
         <v>51</v>
       </c>
+      <c r="H343" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
@@ -8313,6 +9228,9 @@
       <c r="G344" t="str">
         <v>51</v>
       </c>
+      <c r="H344" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
@@ -8336,6 +9254,9 @@
       <c r="G345" t="str">
         <v>51</v>
       </c>
+      <c r="H345" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
@@ -8359,6 +9280,9 @@
       <c r="G346" t="str">
         <v>149</v>
       </c>
+      <c r="H346" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
@@ -8382,6 +9306,9 @@
       <c r="G347" t="str">
         <v>149</v>
       </c>
+      <c r="H347" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
@@ -8405,6 +9332,9 @@
       <c r="G348" t="str">
         <v>149</v>
       </c>
+      <c r="H348" t="str">
+        <v>shantanu</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
@@ -8428,6 +9358,9 @@
       <c r="G349" t="str">
         <v>149</v>
       </c>
+      <c r="H349" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
@@ -8451,6 +9384,9 @@
       <c r="G350" t="str">
         <v>149</v>
       </c>
+      <c r="H350" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
@@ -8474,6 +9410,9 @@
       <c r="G351" t="str">
         <v>149</v>
       </c>
+      <c r="H351" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
@@ -8497,6 +9436,9 @@
       <c r="G352" t="str">
         <v>149</v>
       </c>
+      <c r="H352" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
@@ -8520,6 +9462,9 @@
       <c r="G353" t="str">
         <v>149</v>
       </c>
+      <c r="H353" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
@@ -8543,6 +9488,9 @@
       <c r="G354" t="str">
         <v>149</v>
       </c>
+      <c r="H354" t="str">
+        <v>manoj</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
@@ -8891,7 +9839,7 @@
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G369"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W369"/>
   </ignoredErrors>
 </worksheet>
 </file>